--- a/Assets/Res/Arts/ExcelConfig/ModelConfig.xlsx
+++ b/Assets/Res/Arts/ExcelConfig/ModelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15135" windowHeight="6045"/>
+    <workbookView windowWidth="24180" windowHeight="14850"/>
   </bookViews>
   <sheets>
     <sheet name="ModelConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>id</t>
   </si>
@@ -60,31 +60,37 @@
     <t>ccRadius</t>
   </si>
   <si>
-    <t>模型2</t>
-  </si>
-  <si>
-    <t>Player_001</t>
-  </si>
-  <si>
-    <t>模型</t>
-  </si>
-  <si>
-    <t>Player_002</t>
-  </si>
-  <si>
-    <t>Player_003</t>
-  </si>
-  <si>
-    <t>Player_004</t>
-  </si>
-  <si>
-    <t>Player_005</t>
-  </si>
-  <si>
-    <t>Player_006</t>
-  </si>
-  <si>
-    <t>Player_007</t>
+    <t>骷髅模型1</t>
+  </si>
+  <si>
+    <t>modelprefabs/Player_001</t>
+  </si>
+  <si>
+    <t>骷髅模型2</t>
+  </si>
+  <si>
+    <t>骷髅模型3</t>
+  </si>
+  <si>
+    <t>骷髅模型4</t>
+  </si>
+  <si>
+    <t>骷髅模型5</t>
+  </si>
+  <si>
+    <t>骷髅模型6</t>
+  </si>
+  <si>
+    <t>骷髅模型7</t>
+  </si>
+  <si>
+    <t>骷髅模型8</t>
+  </si>
+  <si>
+    <t>骷髅模型9</t>
+  </si>
+  <si>
+    <t>骷髅模型10</t>
   </si>
 </sst>
 </file>
@@ -92,10 +98,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -106,54 +112,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,6 +217,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -190,23 +234,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,28 +245,6 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,187 +265,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,13 +459,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,26 +489,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,17 +513,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,7 +552,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1035,14 +1041,14 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="8.375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="5" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1147,7 +1153,7 @@
         <v>10003</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>15</v>
@@ -1164,7 +1170,7 @@
         <v>10004</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>15</v>
@@ -1181,10 +1187,10 @@
         <v>10005</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" s="3">
         <v>2.6</v>
@@ -1198,10 +1204,10 @@
         <v>10006</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D10" s="3">
         <v>2.6</v>
@@ -1215,10 +1221,10 @@
         <v>10007</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D11" s="3">
         <v>2.6</v>
@@ -1232,10 +1238,10 @@
         <v>10008</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D12" s="3">
         <v>2.6</v>
@@ -1249,10 +1255,10 @@
         <v>10009</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D13" s="3">
         <v>2.6</v>
@@ -1266,10 +1272,10 @@
         <v>10010</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D14" s="3">
         <v>2.6</v>

--- a/Assets/Res/Arts/ExcelConfig/ModelConfig.xlsx
+++ b/Assets/Res/Arts/ExcelConfig/ModelConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>id</t>
   </si>
@@ -33,6 +33,9 @@
     <t>碰撞器半径</t>
   </si>
   <si>
+    <t>出生点</t>
+  </si>
+  <si>
     <t>lua,sql</t>
   </si>
   <si>
@@ -48,6 +51,9 @@
     <t>float</t>
   </si>
   <si>
+    <t>float[]</t>
+  </si>
+  <si>
     <t>remark</t>
   </si>
   <si>
@@ -60,37 +66,70 @@
     <t>ccRadius</t>
   </si>
   <si>
+    <t>spawnPoint</t>
+  </si>
+  <si>
     <t>骷髅模型1</t>
   </si>
   <si>
     <t>modelprefabs/Player_001</t>
   </si>
   <si>
+    <t>10,0,10</t>
+  </si>
+  <si>
     <t>骷髅模型2</t>
   </si>
   <si>
+    <t>10,0,11</t>
+  </si>
+  <si>
     <t>骷髅模型3</t>
   </si>
   <si>
+    <t>10,0,12</t>
+  </si>
+  <si>
     <t>骷髅模型4</t>
   </si>
   <si>
+    <t>10,0,13</t>
+  </si>
+  <si>
     <t>骷髅模型5</t>
   </si>
   <si>
+    <t>10,0,14</t>
+  </si>
+  <si>
     <t>骷髅模型6</t>
   </si>
   <si>
+    <t>10,0,15</t>
+  </si>
+  <si>
     <t>骷髅模型7</t>
   </si>
   <si>
+    <t>10,0,16</t>
+  </si>
+  <si>
     <t>骷髅模型8</t>
   </si>
   <si>
+    <t>10,0,17</t>
+  </si>
+  <si>
     <t>骷髅模型9</t>
   </si>
   <si>
+    <t>10,0,18</t>
+  </si>
+  <si>
     <t>骷髅模型10</t>
+  </si>
+  <si>
+    <t>10,0,19</t>
   </si>
 </sst>
 </file>
@@ -113,6 +152,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -126,6 +180,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -138,21 +213,6 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,15 +224,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,17 +258,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,49 +280,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -265,25 +304,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,73 +430,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,79 +460,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,6 +495,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,6 +525,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -489,26 +554,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,17 +568,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,8 +590,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,10 +603,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,138 +615,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1038,250 +1080,290 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="8.375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="40.5" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
         <v>10001</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4">
         <v>2.6</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>0.3</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
         <v>10002</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4">
         <v>2.6</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>0.3</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
         <v>10003</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4">
         <v>2.6</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>0.3</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
         <v>10004</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>2.6</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>0.3</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
         <v>10005</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4">
         <v>2.6</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>0.3</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
         <v>10006</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4">
         <v>2.6</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>0.3</v>
       </c>
+      <c r="F10" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
         <v>10007</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4">
         <v>2.6</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>0.3</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
         <v>10008</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="4">
         <v>2.6</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>0.3</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
         <v>10009</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="4">
         <v>2.6</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>0.3</v>
       </c>
+      <c r="F13" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
         <v>10010</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="4">
         <v>2.6</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>0.3</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Res/Arts/ExcelConfig/ModelConfig.xlsx
+++ b/Assets/Res/Arts/ExcelConfig/ModelConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>id</t>
   </si>
@@ -33,9 +33,6 @@
     <t>碰撞器半径</t>
   </si>
   <si>
-    <t>出生点</t>
-  </si>
-  <si>
     <t>lua,sql</t>
   </si>
   <si>
@@ -51,13 +48,10 @@
     <t>float</t>
   </si>
   <si>
-    <t>float[]</t>
-  </si>
-  <si>
     <t>remark</t>
   </si>
   <si>
-    <t>modelName</t>
+    <t>path</t>
   </si>
   <si>
     <t>ccHeight</t>
@@ -66,70 +60,37 @@
     <t>ccRadius</t>
   </si>
   <si>
-    <t>spawnPoint</t>
-  </si>
-  <si>
     <t>骷髅模型1</t>
   </si>
   <si>
     <t>modelprefabs/Player_001</t>
   </si>
   <si>
-    <t>10,0,10</t>
-  </si>
-  <si>
     <t>骷髅模型2</t>
   </si>
   <si>
-    <t>10,0,11</t>
-  </si>
-  <si>
     <t>骷髅模型3</t>
   </si>
   <si>
-    <t>10,0,12</t>
-  </si>
-  <si>
     <t>骷髅模型4</t>
   </si>
   <si>
-    <t>10,0,13</t>
-  </si>
-  <si>
     <t>骷髅模型5</t>
   </si>
   <si>
-    <t>10,0,14</t>
-  </si>
-  <si>
     <t>骷髅模型6</t>
   </si>
   <si>
-    <t>10,0,15</t>
-  </si>
-  <si>
     <t>骷髅模型7</t>
   </si>
   <si>
-    <t>10,0,16</t>
-  </si>
-  <si>
     <t>骷髅模型8</t>
   </si>
   <si>
-    <t>10,0,17</t>
-  </si>
-  <si>
     <t>骷髅模型9</t>
   </si>
   <si>
-    <t>10,0,18</t>
-  </si>
-  <si>
     <t>骷髅模型10</t>
-  </si>
-  <si>
-    <t>10,0,19</t>
   </si>
 </sst>
 </file>
@@ -137,10 +98,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -152,7 +113,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,59 +135,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,6 +149,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -232,6 +217,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -240,27 +241,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,29 +255,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -304,43 +265,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,42 +439,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -395,96 +446,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,11 +461,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,6 +492,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -535,39 +512,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,9 +533,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1080,13 +1041,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="8.375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -1095,7 +1056,7 @@
     <col min="6" max="6" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:6">
+    <row r="1" ht="40.5" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1111,70 +1072,61 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>10001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4">
         <v>2.6</v>
@@ -1182,19 +1134,16 @@
       <c r="E5" s="4">
         <v>0.3</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>10002</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4">
         <v>2.6</v>
@@ -1202,19 +1151,16 @@
       <c r="E6" s="4">
         <v>0.3</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>10003</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" s="4">
         <v>2.6</v>
@@ -1222,19 +1168,16 @@
       <c r="E7" s="4">
         <v>0.3</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>10004</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" s="4">
         <v>2.6</v>
@@ -1242,19 +1185,16 @@
       <c r="E8" s="4">
         <v>0.3</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>10005</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D9" s="4">
         <v>2.6</v>
@@ -1262,19 +1202,16 @@
       <c r="E9" s="4">
         <v>0.3</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>10006</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D10" s="4">
         <v>2.6</v>
@@ -1282,19 +1219,16 @@
       <c r="E10" s="4">
         <v>0.3</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>10007</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D11" s="4">
         <v>2.6</v>
@@ -1302,19 +1236,16 @@
       <c r="E11" s="4">
         <v>0.3</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>10008</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D12" s="4">
         <v>2.6</v>
@@ -1322,19 +1253,16 @@
       <c r="E12" s="4">
         <v>0.3</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>10009</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D13" s="4">
         <v>2.6</v>
@@ -1342,28 +1270,22 @@
       <c r="E13" s="4">
         <v>0.3</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>10010</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D14" s="4">
         <v>2.6</v>
       </c>
       <c r="E14" s="4">
         <v>0.3</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Res/Arts/ExcelConfig/ModelConfig.xlsx
+++ b/Assets/Res/Arts/ExcelConfig/ModelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="14850"/>
+    <workbookView windowWidth="28695" windowHeight="14850"/>
   </bookViews>
   <sheets>
     <sheet name="ModelConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>id</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>骷髅模型2</t>
+  </si>
+  <si>
+    <t>modelprefabs/Player_002</t>
   </si>
   <si>
     <t>骷髅模型3</t>
@@ -98,10 +101,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -113,9 +116,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,8 +152,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -149,6 +183,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -156,8 +205,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -165,94 +252,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -265,25 +268,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,157 +430,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,32 +465,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,6 +476,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,16 +505,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,17 +530,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,16 +579,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,115 +597,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1044,7 +1047,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1143,7 +1146,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4">
         <v>2.6</v>
@@ -1157,7 +1160,7 @@
         <v>10003</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>15</v>
@@ -1174,7 +1177,7 @@
         <v>10004</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>15</v>
@@ -1191,7 +1194,7 @@
         <v>10005</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>15</v>
@@ -1208,7 +1211,7 @@
         <v>10006</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>15</v>
@@ -1225,7 +1228,7 @@
         <v>10007</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>15</v>
@@ -1242,7 +1245,7 @@
         <v>10008</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>15</v>
@@ -1259,7 +1262,7 @@
         <v>10009</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>15</v>
@@ -1276,7 +1279,7 @@
         <v>10010</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>15</v>
